--- a/biology/Médecine/Jean_Noël_Hallé/Jean_Noël_Hallé.xlsx
+++ b/biology/Médecine/Jean_Noël_Hallé/Jean_Noël_Hallé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_No%C3%ABl_Hall%C3%A9</t>
+          <t>Jean_Noël_Hallé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Noël Hallé est un médecin français, né à Paris le 2 janvier 1754  et mort dans cette même ville le 11 février 1822. Promoteur de la vaccination et de l'enseignement de l'hygiène, il est surtout connu pour avoir été premier médecin de Napoléon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_No%C3%ABl_Hall%C3%A9</t>
+          <t>Jean_Noël_Hallé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du peintre Noël Hallé, directeur de l'École de Rome, il devient docteur en médecine en 1770. Il est successivement professeur de physique médicale et d'hygiène à l'École de santé de Paris, professeur au Collège de France en 1805, professeur à la faculté de médecine, médecin ordinaire de Napoléon. Il est membre de l'Académie nationale de médecine. En 1795, il est élu membre de l’Académie des sciences, dont il est président en 1813.
 C'est Hallé qui a créé en France l'enseignement de l'hygiène. Il est l'un des éditeurs du Code des médicaments, ou Pharmacopée française, paru en 1813, et l'un des collaborateurs au Dictionnaire des Sciences médicales et à l'Encyclopédie méthodique. Il étudie les effets du camphre, le cancer du sein, et il est l’un des promoteurs de la vaccination. Il est l'auteur avec Étienne Tourtelle d'un traité d'Hygiène, paru en 1837. C’est lui qui défend Antoine Lavoisier à son procès devant la Convention nationale.
 Jean Noël Hallé est également l'éditeur des Œuvres complètes de Samuel Auguste Tissot, parues en onze volumes entre 1809 et 1813. Il a par ailleurs publié, en 1785, des Recherches sur la nature et les effets du méphitisme des fosses d'aisance.
-Il est inhumé au cimetière du Père-Lachaise (10e division)[3]
+Il est inhumé au cimetière du Père-Lachaise (10e division)
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_No%C3%ABl_Hall%C3%A9</t>
+          <t>Jean_Noël_Hallé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des optimo maximo uni et trino, virgini Dei-Paræ, et L. Lucæ, orthodoxorum medicorum patrono. Quæstio medico, quodlibet-ariis disputationibus, mane discutienda in schalis medicorum, die Jovis decima nonã mensis decembis, anno Domini 1776. M°. Henrico-Alexandro Tessier, clerico Carnuteuse e Regiã societate medica Parisiensi, pro Epidemiis instituta, Doctore Medico, Prœside. Andetur incorporeanimato vistonica. Proponebat Parisiis Joannes-Notalis Hallé, Parisinus, Soluberrime Facultatis Medicinæ Parisiensis Baccalaureus, Thescos Auctor A. R. S. Il. 1776. a texta ad meridien / Parisiis : typis Quillau , 1776
 Quaestio medica ... An detur in corpore animato vis tonica? / Alexandre Henri Tessier / [Parisiis : Quillau , 1776]
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_No%C3%ABl_Hall%C3%A9</t>
+          <t>Jean_Noël_Hallé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,10 +621,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> : Chevalier de la Légion d'honneur[1].
- : Chevalier de l'ordre de Saint-Michel[2].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> : Chevalier de la Légion d'honneur.
+ : Chevalier de l'ordre de Saint-Michel.</t>
         </is>
       </c>
     </row>
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean_No%C3%ABl_Hall%C3%A9</t>
+          <t>Jean_Noël_Hallé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,9 +654,11 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Chevalier Jean-Noël Hallé et de l'Empire par décret impérial du 3 décembre 1809[4].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chevalier Jean-Noël Hallé et de l'Empire par décret impérial du 3 décembre 1809.</t>
         </is>
       </c>
     </row>
@@ -648,7 +668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jean_No%C3%ABl_Hall%C3%A9</t>
+          <t>Jean_Noël_Hallé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,7 +686,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Rue Hallé et villa Hallé à Paris.
 </t>
@@ -679,7 +701,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jean_No%C3%ABl_Hall%C3%A9</t>
+          <t>Jean_Noël_Hallé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,6 +720,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
